--- a/documents/系统测试用例.xlsx
+++ b/documents/系统测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\RenYiBang\RenYiBang-Document\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37D75B8-F77F-4022-9051-DBA64045C46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F51E4B-4BBE-444D-86DF-9A568AB4E075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-16875" windowWidth="21840" windowHeight="37920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="924">
   <si>
     <t>Shanghai Jiao Tong University
 上海交通大学 
@@ -4770,9 +4770,6 @@
       </rPr>
       <t>3457.4KB/s</t>
     </r>
-  </si>
-  <si>
-    <t>下一迭代重点提升</t>
   </si>
   <si>
     <r>
@@ -12617,55 +12614,54 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12674,10 +12670,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12695,14 +12691,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -12712,74 +12738,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13191,80 +13188,80 @@
   <sheetData>
     <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
       <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="50" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="50"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="58" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="59"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="59"/>
+      <c r="F4" s="57"/>
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
-      <c r="B5" s="60">
+      <c r="B5" s="59">
         <v>17</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="59"/>
+      <c r="F5" s="57"/>
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8" ht="30.5" x14ac:dyDescent="0.25">
@@ -13272,10 +13269,10 @@
       <c r="B7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="51"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="22" t="s">
         <v>13</v>
       </c>
@@ -13289,10 +13286,10 @@
       <c r="B8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="51"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="22" t="s">
         <v>13</v>
       </c>
@@ -13306,8 +13303,8 @@
       <c r="B9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="22" t="s">
         <v>13</v>
       </c>
@@ -13318,22 +13315,22 @@
     </row>
     <row r="10" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="47" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="24" t="s">
         <v>19</v>
       </c>
@@ -13348,10 +13345,10 @@
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
-      <c r="B12" s="49">
+      <c r="B12" s="70">
         <v>45488</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="26" t="s">
         <v>22</v>
       </c>
@@ -13366,8 +13363,8 @@
     </row>
     <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -13375,8 +13372,8 @@
     </row>
     <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -13384,8 +13381,8 @@
     </row>
     <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="29"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -13393,8 +13390,8 @@
     </row>
     <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="29"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -13402,8 +13399,8 @@
     </row>
     <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="29"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -13411,21 +13408,21 @@
     </row>
     <row r="18" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31"/>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="42"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="32" t="s">
         <v>27</v>
       </c>
@@ -13441,10 +13438,10 @@
     </row>
     <row r="20" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="31"/>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="48"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="35">
         <f>COUNTIF('Test Cases'!C:C,B20)</f>
         <v>117</v>
@@ -13463,10 +13460,10 @@
     </row>
     <row r="21" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="31"/>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="43"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="35">
         <f>COUNTIF('Test Cases'!C:C,B21)</f>
         <v>16</v>
@@ -13485,10 +13482,10 @@
     </row>
     <row r="22" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="31"/>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="43"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="35">
         <f>COUNTIF('Test Cases'!C:C,B22)</f>
         <v>0</v>
@@ -13507,10 +13504,10 @@
     </row>
     <row r="23" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="31"/>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="43"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="35">
         <f>COUNTIF('Test Cases'!C:C,B23)</f>
         <v>0</v>
@@ -13529,10 +13526,10 @@
     </row>
     <row r="24" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="31"/>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="43"/>
+      <c r="C24" s="77"/>
       <c r="D24" s="35">
         <f>COUNTIF('Test Cases'!C:C,B24)</f>
         <v>0</v>
@@ -13551,10 +13548,10 @@
     </row>
     <row r="25" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="31"/>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="43"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="35">
         <f>COUNTIF('Test Cases'!C:C,B25)</f>
         <v>0</v>
@@ -13573,10 +13570,10 @@
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="31"/>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="42"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="35">
         <f>COUNTIF('Test Cases'!C:C,B26)</f>
         <v>0</v>
@@ -13595,10 +13592,10 @@
     </row>
     <row r="27" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="31"/>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="42"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="35">
         <f>COUNTIF('Test Cases'!C:C,B27)</f>
         <v>36</v>
@@ -13615,10 +13612,10 @@
     </row>
     <row r="28" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="31"/>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="42"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="35">
         <f>COUNTIF('Test Cases'!C:C,B28)</f>
         <v>0</v>
@@ -13635,10 +13632,10 @@
     </row>
     <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.35">
       <c r="A29" s="37"/>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="42"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="35">
         <f>SUM(D20:D28)</f>
         <v>169</v>
@@ -13714,31 +13711,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
@@ -13747,6 +13719,31 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>
@@ -13764,8 +13761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP900"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="C160" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="P161" sqref="P161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.08203125" defaultRowHeight="15.5" x14ac:dyDescent="0.25"/>
@@ -13777,107 +13774,107 @@
     <col min="5" max="5" width="12.75" style="11" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="11" customWidth="1"/>
     <col min="7" max="7" width="16.75" style="11" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" style="87" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="87" customWidth="1"/>
-    <col min="10" max="10" width="15" style="87" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="45" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="45" customWidth="1"/>
+    <col min="10" max="10" width="15" style="45" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" style="11" customWidth="1"/>
     <col min="12" max="12" width="16.5" style="11" customWidth="1"/>
-    <col min="13" max="13" width="5" style="84" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5" style="87" customWidth="1"/>
-    <col min="15" max="40" width="13.08203125" style="84"/>
-    <col min="41" max="41" width="13.25" style="84" customWidth="1"/>
-    <col min="42" max="42" width="4.33203125" style="84" hidden="1" customWidth="1"/>
-    <col min="43" max="16384" width="13.08203125" style="84"/>
+    <col min="13" max="13" width="5" style="43" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5" style="45" customWidth="1"/>
+    <col min="15" max="40" width="13.08203125" style="43"/>
+    <col min="41" max="41" width="13.25" style="43" customWidth="1"/>
+    <col min="42" max="42" width="4.33203125" style="43" hidden="1" customWidth="1"/>
+    <col min="43" max="16384" width="13.08203125" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="92"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="82"/>
     </row>
     <row r="2" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="92"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="82"/>
     </row>
     <row r="3" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="92"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
     </row>
     <row r="4" spans="1:42" ht="45.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="82" t="s">
+      <c r="I4" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="82" t="s">
+      <c r="J4" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="82" t="s">
+      <c r="L4" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="41" t="s">
         <v>55</v>
       </c>
     </row>
@@ -13916,12 +13913,12 @@
       <c r="L5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="84" t="s">
+      <c r="M5" s="43" t="s">
         <v>65</v>
       </c>
       <c r="N5" s="10"/>
-      <c r="X5" s="85"/>
-      <c r="AP5" s="84" t="s">
+      <c r="X5" s="42"/>
+      <c r="AP5" s="43" t="s">
         <v>65</v>
       </c>
     </row>
@@ -13958,16 +13955,16 @@
         <v>63</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="M6" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="89" t="s">
-        <v>921</v>
-      </c>
-      <c r="X6" s="85"/>
-      <c r="AP6" s="84" t="s">
+      <c r="N6" s="46" t="s">
+        <v>920</v>
+      </c>
+      <c r="X6" s="42"/>
+      <c r="AP6" s="43" t="s">
         <v>69</v>
       </c>
     </row>
@@ -14006,11 +14003,11 @@
       <c r="L7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="84" t="s">
+      <c r="M7" s="43" t="s">
         <v>74</v>
       </c>
       <c r="N7" s="10"/>
-      <c r="AP7" s="84" t="s">
+      <c r="AP7" s="43" t="s">
         <v>74</v>
       </c>
     </row>
@@ -14049,11 +14046,11 @@
       <c r="L8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="84" t="s">
+      <c r="M8" s="43" t="s">
         <v>79</v>
       </c>
       <c r="N8" s="10"/>
-      <c r="AP8" s="84" t="s">
+      <c r="AP8" s="43" t="s">
         <v>79</v>
       </c>
     </row>
@@ -14203,7 +14200,7 @@
       <c r="L12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N12" s="90"/>
+      <c r="N12" s="47"/>
     </row>
     <row r="13" spans="1:42" ht="71" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -14277,7 +14274,7 @@
       <c r="L14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="89"/>
+      <c r="N14" s="46"/>
     </row>
     <row r="15" spans="1:42" ht="71" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -14314,7 +14311,7 @@
       <c r="L15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N15" s="89"/>
+      <c r="N15" s="46"/>
     </row>
     <row r="16" spans="1:42" ht="70" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -14351,7 +14348,7 @@
       <c r="L16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N16" s="89"/>
+      <c r="N16" s="46"/>
     </row>
     <row r="17" spans="1:14" ht="71" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -14497,10 +14494,10 @@
         <v>63</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="N20" s="10" t="s">
         <v>922</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="71" x14ac:dyDescent="0.25">
@@ -14612,7 +14609,7 @@
       <c r="L23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N23" s="89"/>
+      <c r="N23" s="46"/>
     </row>
     <row r="24" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -14723,7 +14720,7 @@
       <c r="L26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N26" s="89"/>
+      <c r="N26" s="46"/>
     </row>
     <row r="27" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
@@ -15130,7 +15127,7 @@
       <c r="L37" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N37" s="89"/>
+      <c r="N37" s="46"/>
     </row>
     <row r="38" spans="1:14" ht="43" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
@@ -15167,7 +15164,7 @@
       <c r="L38" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N38" s="89"/>
+      <c r="N38" s="46"/>
     </row>
     <row r="39" spans="1:14" ht="43" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
@@ -15352,7 +15349,7 @@
       <c r="L43" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N43" s="89"/>
+      <c r="N43" s="46"/>
     </row>
     <row r="44" spans="1:14" ht="43" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
@@ -15500,7 +15497,7 @@
       <c r="L47" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N47" s="89"/>
+      <c r="N47" s="46"/>
     </row>
     <row r="48" spans="1:14" ht="43" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
@@ -15870,22 +15867,20 @@
       <c r="L57" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N57" s="9" t="s">
-        <v>300</v>
-      </c>
+      <c r="N57" s="9"/>
     </row>
     <row r="58" spans="1:14" ht="100" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>302</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>59</v>
@@ -15895,13 +15890,13 @@
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="I58" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="I58" s="10" t="s">
+      <c r="J58" s="10" t="s">
         <v>305</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>306</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>63</v>
@@ -15909,22 +15904,20 @@
       <c r="L58" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N58" s="9" t="s">
-        <v>300</v>
-      </c>
+      <c r="N58" s="9"/>
     </row>
     <row r="59" spans="1:14" ht="100" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>307</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>308</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>59</v>
@@ -15937,10 +15930,10 @@
         <v>297</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>63</v>
@@ -15948,22 +15941,20 @@
       <c r="L59" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N59" s="9" t="s">
-        <v>300</v>
-      </c>
+      <c r="N59" s="9"/>
     </row>
     <row r="60" spans="1:14" ht="100" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>312</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>59</v>
@@ -15976,10 +15967,10 @@
         <v>297</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>63</v>
@@ -15987,22 +15978,20 @@
       <c r="L60" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N60" s="9" t="s">
-        <v>300</v>
-      </c>
+      <c r="N60" s="9"/>
     </row>
     <row r="61" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>315</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>316</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>59</v>
@@ -16012,13 +16001,13 @@
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="I61" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="I61" s="9" t="s">
-        <v>319</v>
-      </c>
       <c r="J61" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>63</v>
@@ -16026,23 +16015,23 @@
       <c r="L61" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M61" s="84" t="s">
+      <c r="M61" s="43" t="s">
         <v>65</v>
       </c>
       <c r="N61" s="10"/>
     </row>
     <row r="62" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>59</v>
@@ -16052,13 +16041,13 @@
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>63</v>
@@ -16066,17 +16055,17 @@
       <c r="L62" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M62" s="84" t="s">
+      <c r="M62" s="43" t="s">
         <v>69</v>
       </c>
       <c r="N62" s="10"/>
     </row>
     <row r="63" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>30</v>
@@ -16092,7 +16081,7 @@
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>73</v>
@@ -16106,17 +16095,17 @@
       <c r="L63" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M63" s="84" t="s">
+      <c r="M63" s="43" t="s">
         <v>74</v>
       </c>
       <c r="N63" s="10"/>
     </row>
     <row r="64" spans="1:14" ht="70" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>30</v>
@@ -16132,7 +16121,7 @@
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>78</v>
@@ -16146,17 +16135,17 @@
       <c r="L64" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M64" s="84" t="s">
+      <c r="M64" s="43" t="s">
         <v>79</v>
       </c>
       <c r="N64" s="10"/>
     </row>
     <row r="65" spans="1:14" ht="126" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>30</v>
@@ -16172,13 +16161,13 @@
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="I65" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="I65" s="9" t="s">
-        <v>329</v>
-      </c>
       <c r="J65" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>63</v>
@@ -16190,10 +16179,10 @@
     </row>
     <row r="66" spans="1:14" ht="70" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>30</v>
@@ -16209,7 +16198,7 @@
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>87</v>
@@ -16227,10 +16216,10 @@
     </row>
     <row r="67" spans="1:14" ht="70" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>30</v>
@@ -16246,7 +16235,7 @@
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>91</v>
@@ -16264,16 +16253,16 @@
     </row>
     <row r="68" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>334</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>335</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>59</v>
@@ -16283,13 +16272,13 @@
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="I68" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="I68" s="9" t="s">
-        <v>338</v>
-      </c>
       <c r="J68" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>63</v>
@@ -16301,16 +16290,16 @@
     </row>
     <row r="69" spans="1:14" ht="70" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>59</v>
@@ -16320,13 +16309,13 @@
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="I69" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="I69" s="9" t="s">
-        <v>342</v>
-      </c>
       <c r="J69" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>63</v>
@@ -16338,16 +16327,16 @@
     </row>
     <row r="70" spans="1:14" ht="70" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>343</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>344</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>59</v>
@@ -16357,13 +16346,13 @@
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="I70" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="I70" s="9" t="s">
-        <v>347</v>
-      </c>
       <c r="J70" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>63</v>
@@ -16375,16 +16364,16 @@
     </row>
     <row r="71" spans="1:14" ht="70" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>349</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>59</v>
@@ -16394,13 +16383,13 @@
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="I71" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="I71" s="9" t="s">
-        <v>352</v>
-      </c>
       <c r="J71" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>63</v>
@@ -16412,16 +16401,16 @@
     </row>
     <row r="72" spans="1:14" ht="70" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>354</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>59</v>
@@ -16431,13 +16420,13 @@
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="I72" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="I72" s="9" t="s">
-        <v>357</v>
-      </c>
       <c r="J72" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>63</v>
@@ -16449,16 +16438,16 @@
     </row>
     <row r="73" spans="1:14" ht="70" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>59</v>
@@ -16468,7 +16457,7 @@
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>120</v>
@@ -16486,16 +16475,16 @@
     </row>
     <row r="74" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>59</v>
@@ -16505,7 +16494,7 @@
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I74" s="9" t="s">
         <v>124</v>
@@ -16523,10 +16512,10 @@
     </row>
     <row r="75" spans="1:14" ht="70" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>30</v>
@@ -16542,13 +16531,13 @@
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="I75" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="I75" s="9" t="s">
-        <v>366</v>
-      </c>
       <c r="J75" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K75" s="7" t="s">
         <v>63</v>
@@ -16560,16 +16549,16 @@
     </row>
     <row r="76" spans="1:14" ht="70" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>367</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>368</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>59</v>
@@ -16579,13 +16568,13 @@
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="I76" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="I76" s="9" t="s">
-        <v>357</v>
-      </c>
       <c r="J76" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K76" s="7" t="s">
         <v>63</v>
@@ -16597,16 +16586,16 @@
     </row>
     <row r="77" spans="1:14" ht="70" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>59</v>
@@ -16616,7 +16605,7 @@
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>120</v>
@@ -16634,16 +16623,16 @@
     </row>
     <row r="78" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>59</v>
@@ -16653,7 +16642,7 @@
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I78" s="9" t="s">
         <v>124</v>
@@ -16671,10 +16660,10 @@
     </row>
     <row r="79" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>375</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>30</v>
@@ -16690,7 +16679,7 @@
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I79" s="9" t="s">
         <v>141</v>
@@ -16708,10 +16697,10 @@
     </row>
     <row r="80" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>30</v>
@@ -16727,7 +16716,7 @@
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>145</v>
@@ -16745,10 +16734,10 @@
     </row>
     <row r="81" spans="1:14" ht="70" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>30</v>
@@ -16764,7 +16753,7 @@
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>149</v>
@@ -16782,10 +16771,10 @@
     </row>
     <row r="82" spans="1:14" ht="42" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>382</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>30</v>
@@ -16801,7 +16790,7 @@
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I82" s="9" t="s">
         <v>154</v>
@@ -16819,10 +16808,10 @@
     </row>
     <row r="83" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>30</v>
@@ -16838,7 +16827,7 @@
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I83" s="9" t="s">
         <v>158</v>
@@ -16856,10 +16845,10 @@
     </row>
     <row r="84" spans="1:14" ht="70" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>30</v>
@@ -16875,7 +16864,7 @@
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I84" s="9" t="s">
         <v>162</v>
@@ -16893,7 +16882,7 @@
     </row>
     <row r="85" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>164</v>
@@ -16912,7 +16901,7 @@
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I85" s="9" t="s">
         <v>168</v>
@@ -16930,7 +16919,7 @@
     </row>
     <row r="86" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>164</v>
@@ -16949,7 +16938,7 @@
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I86" s="9" t="s">
         <v>172</v>
@@ -16967,7 +16956,7 @@
     </row>
     <row r="87" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>174</v>
@@ -16986,7 +16975,7 @@
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I87" s="9" t="s">
         <v>177</v>
@@ -17004,7 +16993,7 @@
     </row>
     <row r="88" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>174</v>
@@ -17023,7 +17012,7 @@
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I88" s="9" t="s">
         <v>181</v>
@@ -17041,7 +17030,7 @@
     </row>
     <row r="89" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>183</v>
@@ -17060,7 +17049,7 @@
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>186</v>
@@ -17078,7 +17067,7 @@
     </row>
     <row r="90" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>183</v>
@@ -17097,7 +17086,7 @@
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I90" s="9" t="s">
         <v>190</v>
@@ -17115,7 +17104,7 @@
     </row>
     <row r="91" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>192</v>
@@ -17134,7 +17123,7 @@
       </c>
       <c r="G91" s="7"/>
       <c r="H91" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I91" s="9" t="s">
         <v>195</v>
@@ -17152,7 +17141,7 @@
     </row>
     <row r="92" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>192</v>
@@ -17171,7 +17160,7 @@
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I92" s="9" t="s">
         <v>199</v>
@@ -17189,16 +17178,16 @@
     </row>
     <row r="93" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>404</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>405</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>166</v>
@@ -17208,13 +17197,13 @@
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="I93" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="I93" s="9" t="s">
+      <c r="J93" s="9" t="s">
         <v>408</v>
-      </c>
-      <c r="J93" s="9" t="s">
-        <v>409</v>
       </c>
       <c r="K93" s="7" t="s">
         <v>63</v>
@@ -17226,16 +17215,16 @@
     </row>
     <row r="94" spans="1:14" ht="42" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>166</v>
@@ -17245,13 +17234,13 @@
       </c>
       <c r="G94" s="7"/>
       <c r="H94" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="I94" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="I94" s="9" t="s">
+      <c r="J94" s="9" t="s">
         <v>413</v>
-      </c>
-      <c r="J94" s="9" t="s">
-        <v>414</v>
       </c>
       <c r="K94" s="7" t="s">
         <v>63</v>
@@ -17263,16 +17252,16 @@
     </row>
     <row r="95" spans="1:14" ht="42" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>166</v>
@@ -17282,13 +17271,13 @@
       </c>
       <c r="G95" s="7"/>
       <c r="H95" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="I95" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="I95" s="9" t="s">
-        <v>418</v>
-      </c>
       <c r="J95" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K95" s="7" t="s">
         <v>63</v>
@@ -17300,16 +17289,16 @@
     </row>
     <row r="96" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>166</v>
@@ -17319,13 +17308,13 @@
       </c>
       <c r="G96" s="7"/>
       <c r="H96" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="I96" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="I96" s="9" t="s">
-        <v>423</v>
-      </c>
       <c r="J96" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K96" s="7" t="s">
         <v>63</v>
@@ -17337,16 +17326,16 @@
     </row>
     <row r="97" spans="1:14" ht="42" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>166</v>
@@ -17356,13 +17345,13 @@
       </c>
       <c r="G97" s="7"/>
       <c r="H97" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K97" s="7" t="s">
         <v>63</v>
@@ -17374,16 +17363,16 @@
     </row>
     <row r="98" spans="1:14" ht="42" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>166</v>
@@ -17393,13 +17382,13 @@
       </c>
       <c r="G98" s="7"/>
       <c r="H98" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="I98" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="I98" s="9" t="s">
-        <v>430</v>
-      </c>
       <c r="J98" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K98" s="7" t="s">
         <v>63</v>
@@ -17411,16 +17400,16 @@
     </row>
     <row r="99" spans="1:14" ht="42" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>431</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>432</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>59</v>
@@ -17430,13 +17419,13 @@
       </c>
       <c r="G99" s="7"/>
       <c r="H99" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="I99" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="I99" s="9" t="s">
-        <v>435</v>
-      </c>
       <c r="J99" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K99" s="7" t="s">
         <v>63</v>
@@ -17448,16 +17437,16 @@
     </row>
     <row r="100" spans="1:14" ht="42" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>59</v>
@@ -17467,13 +17456,13 @@
       </c>
       <c r="G100" s="7"/>
       <c r="H100" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="I100" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I100" s="9" t="s">
-        <v>439</v>
-      </c>
       <c r="J100" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K100" s="7" t="s">
         <v>63</v>
@@ -17485,16 +17474,16 @@
     </row>
     <row r="101" spans="1:14" ht="42" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>59</v>
@@ -17504,13 +17493,13 @@
       </c>
       <c r="G101" s="7"/>
       <c r="H101" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="I101" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="I101" s="9" t="s">
-        <v>443</v>
-      </c>
       <c r="J101" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K101" s="7" t="s">
         <v>63</v>
@@ -17522,16 +17511,16 @@
     </row>
     <row r="102" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>59</v>
@@ -17541,13 +17530,13 @@
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="I102" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="I102" s="9" t="s">
-        <v>447</v>
-      </c>
       <c r="J102" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K102" s="7" t="s">
         <v>63</v>
@@ -17559,16 +17548,16 @@
     </row>
     <row r="103" spans="1:14" ht="42" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>448</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>449</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>59</v>
@@ -17578,13 +17567,13 @@
       </c>
       <c r="G103" s="7"/>
       <c r="H103" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="I103" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="I103" s="9" t="s">
-        <v>452</v>
-      </c>
       <c r="J103" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K103" s="7" t="s">
         <v>63</v>
@@ -17596,16 +17585,16 @@
     </row>
     <row r="104" spans="1:14" ht="42" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>59</v>
@@ -17615,13 +17604,13 @@
       </c>
       <c r="G104" s="7"/>
       <c r="H104" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="I104" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="I104" s="9" t="s">
-        <v>456</v>
-      </c>
       <c r="J104" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K104" s="7" t="s">
         <v>63</v>
@@ -17633,16 +17622,16 @@
     </row>
     <row r="105" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>457</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>458</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>59</v>
@@ -17652,7 +17641,7 @@
       </c>
       <c r="G105" s="7"/>
       <c r="H105" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I105" s="9" t="s">
         <v>257</v>
@@ -17670,16 +17659,16 @@
     </row>
     <row r="106" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>59</v>
@@ -17689,7 +17678,7 @@
       </c>
       <c r="G106" s="7"/>
       <c r="H106" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I106" s="9" t="s">
         <v>262</v>
@@ -17707,16 +17696,16 @@
     </row>
     <row r="107" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>59</v>
@@ -17726,7 +17715,7 @@
       </c>
       <c r="G107" s="7"/>
       <c r="H107" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I107" s="9" t="s">
         <v>267</v>
@@ -17744,7 +17733,7 @@
     </row>
     <row r="108" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>270</v>
@@ -17753,7 +17742,7 @@
         <v>37</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>59</v>
@@ -17763,7 +17752,7 @@
       </c>
       <c r="G108" s="7"/>
       <c r="H108" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I108" s="9" t="s">
         <v>273</v>
@@ -17781,7 +17770,7 @@
     </row>
     <row r="109" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>275</v>
@@ -17790,7 +17779,7 @@
         <v>37</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>59</v>
@@ -17800,7 +17789,7 @@
       </c>
       <c r="G109" s="7"/>
       <c r="H109" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I109" s="9" t="s">
         <v>278</v>
@@ -17818,7 +17807,7 @@
     </row>
     <row r="110" spans="1:14" ht="70" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>280</v>
@@ -17827,7 +17816,7 @@
         <v>37</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>59</v>
@@ -17837,7 +17826,7 @@
       </c>
       <c r="G110" s="7"/>
       <c r="H110" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I110" s="9" t="s">
         <v>283</v>
@@ -17855,7 +17844,7 @@
     </row>
     <row r="111" spans="1:14" ht="70" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>285</v>
@@ -17864,7 +17853,7 @@
         <v>37</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>59</v>
@@ -17874,7 +17863,7 @@
       </c>
       <c r="G111" s="7"/>
       <c r="H111" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I111" s="9" t="s">
         <v>283</v>
@@ -17892,16 +17881,16 @@
     </row>
     <row r="112" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>479</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>480</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>59</v>
@@ -17911,13 +17900,13 @@
       </c>
       <c r="G112" s="7"/>
       <c r="H112" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="I112" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="I112" s="9" t="s">
-        <v>483</v>
-      </c>
       <c r="J112" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K112" s="7" t="s">
         <v>63</v>
@@ -17929,16 +17918,16 @@
     </row>
     <row r="113" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>484</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>485</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>59</v>
@@ -17948,13 +17937,13 @@
       </c>
       <c r="G113" s="7"/>
       <c r="H113" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="I113" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="I113" s="10" t="s">
+      <c r="J113" s="9" t="s">
         <v>488</v>
-      </c>
-      <c r="J113" s="9" t="s">
-        <v>489</v>
       </c>
       <c r="K113" s="7" t="s">
         <v>63</v>
@@ -17962,22 +17951,20 @@
       <c r="L113" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N113" s="9" t="s">
-        <v>300</v>
-      </c>
+      <c r="N113" s="9"/>
     </row>
     <row r="114" spans="1:14" ht="100" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>490</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>491</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>59</v>
@@ -17987,13 +17974,13 @@
       </c>
       <c r="G114" s="7"/>
       <c r="H114" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="I114" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="I114" s="10" t="s">
-        <v>305</v>
-      </c>
       <c r="J114" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K114" s="7" t="s">
         <v>63</v>
@@ -18001,22 +17988,20 @@
       <c r="L114" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N114" s="9" t="s">
-        <v>300</v>
-      </c>
+      <c r="N114" s="9"/>
     </row>
     <row r="115" spans="1:14" ht="100" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>494</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>495</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>59</v>
@@ -18029,10 +18014,10 @@
         <v>297</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K115" s="7" t="s">
         <v>63</v>
@@ -18040,22 +18025,20 @@
       <c r="L115" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N115" s="9" t="s">
-        <v>300</v>
-      </c>
+      <c r="N115" s="9"/>
     </row>
     <row r="116" spans="1:14" ht="100" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="B116" s="8" t="s">
         <v>498</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>499</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>59</v>
@@ -18068,10 +18051,10 @@
         <v>297</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K116" s="7" t="s">
         <v>63</v>
@@ -18079,22 +18062,20 @@
       <c r="L116" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N116" s="9" t="s">
-        <v>300</v>
-      </c>
+      <c r="N116" s="9"/>
     </row>
     <row r="117" spans="1:14" ht="57.5" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>503</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>59</v>
@@ -18104,13 +18085,13 @@
       </c>
       <c r="G117" s="7"/>
       <c r="H117" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="I117" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="I117" s="9" t="s">
-        <v>506</v>
-      </c>
       <c r="J117" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K117" s="7" t="s">
         <v>63</v>
@@ -18121,16 +18102,16 @@
     </row>
     <row r="118" spans="1:14" ht="43" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>59</v>
@@ -18140,13 +18121,13 @@
       </c>
       <c r="G118" s="7"/>
       <c r="H118" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="I118" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="I118" s="9" t="s">
-        <v>510</v>
-      </c>
       <c r="J118" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K118" s="7" t="s">
         <v>63</v>
@@ -18157,16 +18138,16 @@
     </row>
     <row r="119" spans="1:14" ht="43" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>59</v>
@@ -18176,13 +18157,13 @@
       </c>
       <c r="G119" s="7"/>
       <c r="H119" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K119" s="7" t="s">
         <v>63</v>
@@ -18193,16 +18174,16 @@
     </row>
     <row r="120" spans="1:14" ht="57.5" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>514</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>515</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>59</v>
@@ -18212,13 +18193,13 @@
       </c>
       <c r="G120" s="7"/>
       <c r="H120" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="I120" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="I120" s="9" t="s">
-        <v>518</v>
-      </c>
       <c r="J120" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K120" s="7" t="s">
         <v>63</v>
@@ -18229,16 +18210,16 @@
     </row>
     <row r="121" spans="1:14" ht="57.5" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B121" s="8" t="s">
         <v>519</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>520</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>59</v>
@@ -18248,13 +18229,13 @@
       </c>
       <c r="G121" s="7"/>
       <c r="H121" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="I121" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="I121" s="9" t="s">
-        <v>523</v>
-      </c>
       <c r="J121" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K121" s="7" t="s">
         <v>63</v>
@@ -18265,16 +18246,16 @@
     </row>
     <row r="122" spans="1:14" ht="57.5" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B122" s="8" t="s">
         <v>524</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>59</v>
@@ -18284,13 +18265,13 @@
       </c>
       <c r="G122" s="8"/>
       <c r="H122" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="I122" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="I122" s="9" t="s">
-        <v>527</v>
-      </c>
       <c r="J122" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K122" s="7" t="s">
         <v>63</v>
@@ -18301,16 +18282,16 @@
     </row>
     <row r="123" spans="1:14" ht="57.5" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B123" s="8" t="s">
         <v>528</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>529</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>59</v>
@@ -18320,13 +18301,13 @@
       </c>
       <c r="G123" s="7"/>
       <c r="H123" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="I123" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="I123" s="9" t="s">
-        <v>531</v>
-      </c>
       <c r="J123" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K123" s="7" t="s">
         <v>63</v>
@@ -18337,16 +18318,16 @@
     </row>
     <row r="124" spans="1:14" ht="71.5" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>532</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>533</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>59</v>
@@ -18356,13 +18337,13 @@
       </c>
       <c r="G124" s="7"/>
       <c r="H124" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="I124" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="I124" s="9" t="s">
-        <v>536</v>
-      </c>
       <c r="J124" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K124" s="7" t="s">
         <v>63</v>
@@ -18373,16 +18354,16 @@
     </row>
     <row r="125" spans="1:14" ht="71.5" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E125" s="8" t="s">
         <v>59</v>
@@ -18392,13 +18373,13 @@
       </c>
       <c r="G125" s="7"/>
       <c r="H125" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K125" s="7" t="s">
         <v>63</v>
@@ -18409,16 +18390,16 @@
     </row>
     <row r="126" spans="1:14" ht="71.5" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>59</v>
@@ -18428,13 +18409,13 @@
       </c>
       <c r="G126" s="7"/>
       <c r="H126" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K126" s="7" t="s">
         <v>63</v>
@@ -18445,16 +18426,16 @@
     </row>
     <row r="127" spans="1:14" ht="71.5" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E127" s="8" t="s">
         <v>59</v>
@@ -18464,13 +18445,13 @@
       </c>
       <c r="G127" s="7"/>
       <c r="H127" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K127" s="7" t="s">
         <v>63</v>
@@ -18481,16 +18462,16 @@
     </row>
     <row r="128" spans="1:14" ht="71.5" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="B128" s="8" t="s">
         <v>545</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>546</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>59</v>
@@ -18500,13 +18481,13 @@
       </c>
       <c r="G128" s="7"/>
       <c r="H128" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K128" s="7" t="s">
         <v>63</v>
@@ -18517,16 +18498,16 @@
     </row>
     <row r="129" spans="1:12" ht="71.5" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>59</v>
@@ -18536,13 +18517,13 @@
       </c>
       <c r="G129" s="7"/>
       <c r="H129" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K129" s="7" t="s">
         <v>63</v>
@@ -18553,16 +18534,16 @@
     </row>
     <row r="130" spans="1:12" ht="71.5" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>59</v>
@@ -18572,13 +18553,13 @@
       </c>
       <c r="G130" s="7"/>
       <c r="H130" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K130" s="7" t="s">
         <v>63</v>
@@ -18589,16 +18570,16 @@
     </row>
     <row r="131" spans="1:12" ht="71.5" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>59</v>
@@ -18608,13 +18589,13 @@
       </c>
       <c r="G131" s="7"/>
       <c r="H131" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K131" s="7" t="s">
         <v>63</v>
@@ -18625,16 +18606,16 @@
     </row>
     <row r="132" spans="1:12" ht="70.5" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="B132" s="8" t="s">
         <v>555</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>556</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>59</v>
@@ -18644,7 +18625,7 @@
       </c>
       <c r="G132" s="7"/>
       <c r="H132" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I132" s="9" t="s">
         <v>214</v>
@@ -18661,16 +18642,16 @@
     </row>
     <row r="133" spans="1:12" ht="70.5" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B133" s="8" t="s">
         <v>559</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>560</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>59</v>
@@ -18680,13 +18661,13 @@
       </c>
       <c r="G133" s="7"/>
       <c r="H133" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="I133" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="I133" s="9" t="s">
-        <v>562</v>
-      </c>
       <c r="J133" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K133" s="7" t="s">
         <v>63</v>
@@ -18697,16 +18678,16 @@
     </row>
     <row r="134" spans="1:12" ht="42" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="B134" s="8" t="s">
         <v>563</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>564</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>166</v>
@@ -18716,7 +18697,7 @@
       </c>
       <c r="G134" s="7"/>
       <c r="H134" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I134" s="9" t="s">
         <v>257</v>
@@ -18731,16 +18712,16 @@
     </row>
     <row r="135" spans="1:12" ht="42" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E135" s="8" t="s">
         <v>166</v>
@@ -18750,7 +18731,7 @@
       </c>
       <c r="G135" s="7"/>
       <c r="H135" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I135" s="9" t="s">
         <v>262</v>
@@ -18765,16 +18746,16 @@
     </row>
     <row r="136" spans="1:12" ht="42" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>166</v>
@@ -18784,7 +18765,7 @@
       </c>
       <c r="G136" s="7"/>
       <c r="H136" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I136" s="9" t="s">
         <v>267</v>
@@ -18799,16 +18780,16 @@
     </row>
     <row r="137" spans="1:12" ht="42" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>166</v>
@@ -18818,7 +18799,7 @@
       </c>
       <c r="G137" s="7"/>
       <c r="H137" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I137" s="9" t="s">
         <v>257</v>
@@ -18833,16 +18814,16 @@
     </row>
     <row r="138" spans="1:12" ht="42" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>166</v>
@@ -18852,7 +18833,7 @@
       </c>
       <c r="G138" s="7"/>
       <c r="H138" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I138" s="9" t="s">
         <v>262</v>
@@ -18867,16 +18848,16 @@
     </row>
     <row r="139" spans="1:12" ht="42" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E139" s="8" t="s">
         <v>166</v>
@@ -18886,7 +18867,7 @@
       </c>
       <c r="G139" s="7"/>
       <c r="H139" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I139" s="9" t="s">
         <v>267</v>
@@ -18901,16 +18882,16 @@
     </row>
     <row r="140" spans="1:12" ht="42" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B140" s="8" t="s">
         <v>579</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>580</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>166</v>
@@ -18920,7 +18901,7 @@
       </c>
       <c r="G140" s="7"/>
       <c r="H140" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I140" s="9" t="s">
         <v>267</v>
@@ -18935,16 +18916,16 @@
     </row>
     <row r="141" spans="1:12" ht="42" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>166</v>
@@ -18954,7 +18935,7 @@
       </c>
       <c r="G141" s="7"/>
       <c r="H141" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I141" s="9" t="s">
         <v>267</v>
@@ -18969,16 +18950,16 @@
     </row>
     <row r="142" spans="1:12" ht="56" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B142" s="44" t="s">
         <v>584</v>
-      </c>
-      <c r="B142" s="86" t="s">
-        <v>585</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>166</v>
@@ -18987,10 +18968,10 @@
         <v>114</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J142" s="10"/>
       <c r="K142" s="7" t="s">
@@ -19002,16 +18983,16 @@
     </row>
     <row r="143" spans="1:12" ht="56" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B143" s="44" t="s">
         <v>588</v>
-      </c>
-      <c r="B143" s="86" t="s">
-        <v>589</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>166</v>
@@ -19021,10 +19002,10 @@
       </c>
       <c r="G143" s="7"/>
       <c r="H143" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J143" s="10"/>
       <c r="K143" s="7" t="s">
@@ -19036,16 +19017,16 @@
     </row>
     <row r="144" spans="1:12" ht="56" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="B144" s="86" t="s">
-        <v>589</v>
+        <v>591</v>
+      </c>
+      <c r="B144" s="44" t="s">
+        <v>588</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>166</v>
@@ -19055,10 +19036,10 @@
       </c>
       <c r="G144" s="7"/>
       <c r="H144" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I144" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J144" s="10"/>
       <c r="K144" s="7" t="s">
@@ -19070,16 +19051,16 @@
     </row>
     <row r="145" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="B145" s="86" t="s">
-        <v>589</v>
+        <v>593</v>
+      </c>
+      <c r="B145" s="44" t="s">
+        <v>588</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>166</v>
@@ -19089,10 +19070,10 @@
       </c>
       <c r="G145" s="7"/>
       <c r="H145" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J145" s="10"/>
       <c r="K145" s="7" t="s">
@@ -19104,10 +19085,10 @@
     </row>
     <row r="146" spans="1:14" ht="71.5" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="B146" s="8" t="s">
         <v>596</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>597</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>31</v>
@@ -19123,10 +19104,10 @@
       </c>
       <c r="G146" s="7"/>
       <c r="H146" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I146" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K146" s="7" t="s">
         <v>63</v>
@@ -19137,32 +19118,32 @@
     </row>
     <row r="147" spans="1:14" ht="28" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B147" s="8" t="s">
         <v>599</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>600</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G147" s="7"/>
       <c r="H147" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I147" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="I147" s="9" t="s">
-        <v>604</v>
-      </c>
       <c r="J147" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K147" s="7" t="s">
         <v>63</v>
@@ -19173,32 +19154,32 @@
     </row>
     <row r="148" spans="1:14" ht="70" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="B148" s="8" t="s">
         <v>605</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>606</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G148" s="8"/>
       <c r="H148" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="I148" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="I148" s="9" t="s">
-        <v>610</v>
-      </c>
       <c r="J148" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K148" s="7" t="s">
         <v>63</v>
@@ -19209,32 +19190,32 @@
     </row>
     <row r="149" spans="1:14" ht="70" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="B149" s="8" t="s">
         <v>611</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>612</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G149" s="7"/>
       <c r="H149" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="I149" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="I149" s="9" t="s">
-        <v>616</v>
-      </c>
       <c r="J149" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K149" s="7" t="s">
         <v>63</v>
@@ -19245,32 +19226,32 @@
     </row>
     <row r="150" spans="1:14" ht="70" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G150" s="7"/>
       <c r="H150" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="I150" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="I150" s="9" t="s">
-        <v>621</v>
-      </c>
       <c r="J150" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K150" s="7" t="s">
         <v>63</v>
@@ -19281,32 +19262,32 @@
     </row>
     <row r="151" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="B151" s="8" t="s">
         <v>622</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>623</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E151" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G151" s="7"/>
       <c r="H151" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="I151" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="I151" s="9" t="s">
-        <v>627</v>
-      </c>
       <c r="J151" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K151" s="7" t="s">
         <v>63</v>
@@ -19314,36 +19295,36 @@
       <c r="L151" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N151" s="91"/>
+      <c r="N151" s="48"/>
     </row>
     <row r="152" spans="1:14" ht="42" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B152" s="8" t="s">
         <v>628</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>629</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E152" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G152" s="7"/>
       <c r="H152" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="I152" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="I152" s="9" t="s">
+      <c r="J152" s="10" t="s">
         <v>633</v>
-      </c>
-      <c r="J152" s="10" t="s">
-        <v>634</v>
       </c>
       <c r="K152" s="7" t="s">
         <v>63</v>
@@ -19354,32 +19335,32 @@
     </row>
     <row r="153" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="B153" s="8" t="s">
         <v>635</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>636</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E153" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G153" s="8"/>
       <c r="H153" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="I153" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="I153" s="9" t="s">
+      <c r="J153" s="9" t="s">
         <v>640</v>
-      </c>
-      <c r="J153" s="9" t="s">
-        <v>641</v>
       </c>
       <c r="K153" s="7" t="s">
         <v>63</v>
@@ -19390,32 +19371,32 @@
     </row>
     <row r="154" spans="1:14" ht="70" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="B154" s="8" t="s">
         <v>642</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>643</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G154" s="7"/>
       <c r="H154" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="I154" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="I154" s="9" t="s">
+      <c r="J154" s="9" t="s">
         <v>647</v>
-      </c>
-      <c r="J154" s="9" t="s">
-        <v>648</v>
       </c>
       <c r="K154" s="7" t="s">
         <v>63</v>
@@ -19426,32 +19407,32 @@
     </row>
     <row r="155" spans="1:14" ht="70" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E155" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G155" s="7"/>
       <c r="H155" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="I155" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="I155" s="9" t="s">
+      <c r="J155" s="9" t="s">
         <v>653</v>
-      </c>
-      <c r="J155" s="9" t="s">
-        <v>654</v>
       </c>
       <c r="K155" s="7" t="s">
         <v>63</v>
@@ -19462,32 +19443,32 @@
     </row>
     <row r="156" spans="1:14" ht="56.5" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E156" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G156" s="7"/>
       <c r="H156" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="I156" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="I156" s="9" t="s">
-        <v>658</v>
-      </c>
       <c r="J156" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K156" s="7" t="s">
         <v>63</v>
@@ -19498,32 +19479,32 @@
     </row>
     <row r="157" spans="1:14" ht="42" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E157" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G157" s="7"/>
       <c r="H157" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I157" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J157" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K157" s="7" t="s">
         <v>63</v>
@@ -19534,32 +19515,32 @@
     </row>
     <row r="158" spans="1:14" ht="70" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G158" s="7"/>
       <c r="H158" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J158" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K158" s="7" t="s">
         <v>63</v>
@@ -19570,32 +19551,32 @@
     </row>
     <row r="159" spans="1:14" ht="70" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E159" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G159" s="7"/>
       <c r="H159" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I159" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J159" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K159" s="7" t="s">
         <v>63</v>
@@ -19606,32 +19587,32 @@
     </row>
     <row r="160" spans="1:14" ht="56" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G160" s="7"/>
       <c r="H160" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I160" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J160" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K160" s="7" t="s">
         <v>63</v>
@@ -19642,16 +19623,16 @@
     </row>
     <row r="161" spans="1:14" ht="101" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="B161" s="8" t="s">
         <v>671</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>672</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E161" s="8" t="s">
         <v>59</v>
@@ -19660,36 +19641,36 @@
         <v>60</v>
       </c>
       <c r="H161" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="I161" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="I161" s="9" t="s">
-        <v>675</v>
-      </c>
       <c r="J161" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K161" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L161" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="N161" s="91" t="s">
-        <v>924</v>
+        <v>921</v>
+      </c>
+      <c r="N161" s="48" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="87" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>166</v>
@@ -19698,33 +19679,33 @@
         <v>60</v>
       </c>
       <c r="H162" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="I162" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="I162" s="9" t="s">
+      <c r="J162" s="9" t="s">
         <v>680</v>
-      </c>
-      <c r="J162" s="9" t="s">
-        <v>681</v>
       </c>
       <c r="K162" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L162" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="B163" s="8" t="s">
         <v>682</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>683</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E163" s="8" t="s">
         <v>59</v>
@@ -19733,34 +19714,34 @@
         <v>60</v>
       </c>
       <c r="H163" s="10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I163" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J163" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K163" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L163" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="N163" s="91"/>
+        <v>675</v>
+      </c>
+      <c r="N163" s="48"/>
     </row>
     <row r="164" spans="1:14" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>166</v>
@@ -19769,33 +19750,33 @@
         <v>60</v>
       </c>
       <c r="H164" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="I164" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="I164" s="9" t="s">
+      <c r="J164" s="9" t="s">
         <v>689</v>
-      </c>
-      <c r="J164" s="9" t="s">
-        <v>690</v>
       </c>
       <c r="K164" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L164" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="B165" s="8" t="s">
         <v>691</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>692</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E165" s="8" t="s">
         <v>59</v>
@@ -19804,33 +19785,33 @@
         <v>60</v>
       </c>
       <c r="H165" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="I165" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="I165" s="9" t="s">
-        <v>695</v>
-      </c>
       <c r="J165" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K165" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L165" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="B166" s="8" t="s">
         <v>696</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>697</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>59</v>
@@ -19839,33 +19820,33 @@
         <v>60</v>
       </c>
       <c r="H166" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I166" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J166" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K166" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L166" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="B167" s="8" t="s">
         <v>700</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>701</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E167" s="8" t="s">
         <v>59</v>
@@ -19874,34 +19855,34 @@
         <v>60</v>
       </c>
       <c r="H167" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="I167" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="I167" s="9" t="s">
-        <v>704</v>
-      </c>
       <c r="J167" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K167" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L167" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="N167" s="91"/>
+        <v>675</v>
+      </c>
+      <c r="N167" s="48"/>
     </row>
     <row r="168" spans="1:14" ht="87" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E168" s="8" t="s">
         <v>59</v>
@@ -19910,33 +19891,33 @@
         <v>60</v>
       </c>
       <c r="H168" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="I168" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="I168" s="9" t="s">
+      <c r="J168" s="9" t="s">
         <v>708</v>
-      </c>
-      <c r="J168" s="9" t="s">
-        <v>709</v>
       </c>
       <c r="K168" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L168" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E169" s="8" t="s">
         <v>59</v>
@@ -19945,33 +19926,33 @@
         <v>60</v>
       </c>
       <c r="H169" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="I169" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="I169" s="9" t="s">
+      <c r="J169" s="9" t="s">
         <v>713</v>
-      </c>
-      <c r="J169" s="9" t="s">
-        <v>714</v>
       </c>
       <c r="K169" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L169" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>59</v>
@@ -19980,33 +19961,33 @@
         <v>60</v>
       </c>
       <c r="H170" s="10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I170" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="J170" s="9" t="s">
         <v>717</v>
-      </c>
-      <c r="J170" s="9" t="s">
-        <v>718</v>
       </c>
       <c r="K170" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L170" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="43" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>59</v>
@@ -20015,33 +19996,33 @@
         <v>60</v>
       </c>
       <c r="H171" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="I171" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="I171" s="9" t="s">
+      <c r="J171" s="9" t="s">
         <v>722</v>
-      </c>
-      <c r="J171" s="9" t="s">
-        <v>723</v>
       </c>
       <c r="K171" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L171" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="43" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>59</v>
@@ -20050,33 +20031,33 @@
         <v>60</v>
       </c>
       <c r="H172" s="10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I172" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J172" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K172" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L172" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="43" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E173" s="8" t="s">
         <v>59</v>
@@ -20085,19 +20066,19 @@
         <v>60</v>
       </c>
       <c r="H173" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="I173" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="I173" s="9" t="s">
-        <v>730</v>
-      </c>
       <c r="J173" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K173" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L173" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -23687,14 +23668,14 @@
   <sheetData>
     <row r="1" spans="1:2" ht="303" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
-        <v>732</v>
-      </c>
-      <c r="B3" s="81"/>
+      <c r="B3" s="83"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -23704,7 +23685,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B5" s="3"/>
     </row>
@@ -23731,956 +23712,956 @@
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="84" t="s">
+        <v>733</v>
+      </c>
+      <c r="B10" s="84"/>
+    </row>
+    <row r="11" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="85" t="s">
         <v>734</v>
       </c>
-      <c r="B10" s="78"/>
-    </row>
-    <row r="11" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="73" t="s">
+      <c r="B11" s="85"/>
+    </row>
+    <row r="12" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="85" t="s">
         <v>735</v>
       </c>
-      <c r="B11" s="73"/>
-    </row>
-    <row r="12" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+      <c r="B12" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="B12" s="5" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="85"/>
+      <c r="B13" s="5" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="5" t="s">
+    <row r="14" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="85"/>
+      <c r="B14" s="5" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="85"/>
+      <c r="B15" s="5" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="5" t="s">
+    <row r="16" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="85"/>
+      <c r="B16" s="5" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="5" t="s">
+    <row r="17" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="85"/>
+      <c r="B17" s="5" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="85"/>
+      <c r="B18" s="5" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="5" t="s">
+    <row r="19" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="85"/>
+      <c r="B19" s="5" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="5" t="s">
+    <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="85"/>
+      <c r="B20" s="5" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="85"/>
+      <c r="B21" s="5" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="5" t="s">
+    <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.25">
+      <c r="A22" s="85"/>
+      <c r="B22" s="5" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="5" t="s">
+    <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="85"/>
+      <c r="B23" s="5" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="5" t="s">
+    <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="85"/>
+      <c r="B24" s="5" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="5" t="s">
+    <row r="25" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="85" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="73" t="s">
+      <c r="B25" s="85"/>
+    </row>
+    <row r="26" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="85" t="s">
         <v>750</v>
       </c>
-      <c r="B25" s="73"/>
-    </row>
-    <row r="26" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="73" t="s">
+      <c r="B26" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="B26" s="5" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="85"/>
+      <c r="B27" s="5" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="5" t="s">
+    <row r="28" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="85"/>
+      <c r="B28" s="5" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
-      <c r="B28" s="5" t="s">
+    <row r="29" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="85"/>
+      <c r="B29" s="5" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="5" t="s">
+    <row r="30" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="85"/>
+      <c r="B30" s="5" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
-      <c r="B30" s="5" t="s">
+    <row r="31" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="85"/>
+      <c r="B31" s="5" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="5" t="s">
+    <row r="32" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="85"/>
+      <c r="B32" s="5" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="5" t="s">
+    <row r="33" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="85"/>
+      <c r="B33" s="5" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
-      <c r="B33" s="5" t="s">
+    <row r="34" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="85"/>
+      <c r="B34" s="5" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
-      <c r="B34" s="5" t="s">
+    <row r="35" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="85" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="73" t="s">
+      <c r="B35" s="85"/>
+    </row>
+    <row r="36" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="89" t="s">
         <v>761</v>
       </c>
-      <c r="B35" s="73"/>
-    </row>
-    <row r="36" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="75" t="s">
+      <c r="B36" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="B36" s="5" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="91"/>
+      <c r="B37" s="5" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="76"/>
-      <c r="B37" s="5" t="s">
+    <row r="38" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="90"/>
+      <c r="B38" s="5" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="77"/>
-      <c r="B38" s="5" t="s">
+    <row r="39" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="85" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="73" t="s">
+      <c r="B39" s="85"/>
+    </row>
+    <row r="40" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="85" t="s">
         <v>766</v>
       </c>
-      <c r="B39" s="73"/>
-    </row>
-    <row r="40" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="73" t="s">
+      <c r="B40" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="B40" s="5" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="85"/>
+      <c r="B41" s="5" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
-      <c r="B41" s="5" t="s">
+    <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.25">
+      <c r="A42" s="85"/>
+      <c r="B42" s="5" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A42" s="73"/>
-      <c r="B42" s="5" t="s">
+    <row r="43" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="85"/>
+      <c r="B43" s="5" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="73"/>
-      <c r="B43" s="5" t="s">
+    <row r="44" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="85" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="73" t="s">
-        <v>772</v>
-      </c>
-      <c r="B44" s="73"/>
+      <c r="B44" s="85"/>
     </row>
     <row r="45" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="B45" s="5" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="85" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="73" t="s">
+      <c r="B46" s="85"/>
+    </row>
+    <row r="47" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="85" t="s">
         <v>775</v>
       </c>
-      <c r="B46" s="73"/>
-    </row>
-    <row r="47" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="73" t="s">
+      <c r="B47" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="B47" s="5" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="85"/>
+      <c r="B48" s="5" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="73"/>
-      <c r="B48" s="5" t="s">
+    <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="85"/>
+      <c r="B49" s="5" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="73"/>
-      <c r="B49" s="5" t="s">
+    <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="85"/>
+      <c r="B50" s="5" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="73"/>
-      <c r="B50" s="5" t="s">
+    <row r="51" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="85"/>
+      <c r="B51" s="5" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="73"/>
-      <c r="B51" s="5" t="s">
+    <row r="52" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="85" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="73" t="s">
+      <c r="B52" s="85"/>
+    </row>
+    <row r="53" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="89" t="s">
         <v>782</v>
       </c>
-      <c r="B52" s="73"/>
-    </row>
-    <row r="53" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="75" t="s">
+      <c r="B53" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="B53" s="5" t="s">
+    </row>
+    <row r="54" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="91"/>
+      <c r="B54" s="5" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="76"/>
-      <c r="B54" s="5" t="s">
+    <row r="55" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="91"/>
+      <c r="B55" s="5" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="76"/>
-      <c r="B55" s="5" t="s">
+    <row r="56" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="91"/>
+      <c r="B56" s="5" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="76"/>
-      <c r="B56" s="5" t="s">
+    <row r="57" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="90"/>
+      <c r="B57" s="5" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="77"/>
-      <c r="B57" s="5" t="s">
+    <row r="58" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="85" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="73" t="s">
+      <c r="B58" s="85"/>
+    </row>
+    <row r="59" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="89" t="s">
         <v>789</v>
       </c>
-      <c r="B58" s="73"/>
-    </row>
-    <row r="59" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="75" t="s">
+      <c r="B59" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="B59" s="5" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="91"/>
+      <c r="B60" s="5" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="76"/>
-      <c r="B60" s="5" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="90"/>
+      <c r="B61" s="5" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="77"/>
-      <c r="B61" s="5" t="s">
+    <row r="62" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="85" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="73" t="s">
+      <c r="B62" s="85"/>
+    </row>
+    <row r="63" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="85" t="s">
         <v>794</v>
       </c>
-      <c r="B62" s="73"/>
-    </row>
-    <row r="63" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="73" t="s">
+      <c r="B63" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="B63" s="5" t="s">
+    </row>
+    <row r="64" spans="1:2" ht="27" x14ac:dyDescent="0.25">
+      <c r="A64" s="85"/>
+      <c r="B64" s="5" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A64" s="73"/>
-      <c r="B64" s="5" t="s">
+    <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="85"/>
+      <c r="B65" s="5" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="73"/>
-      <c r="B65" s="5" t="s">
+    <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="85"/>
+      <c r="B66" s="5" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="73"/>
-      <c r="B66" s="5" t="s">
+    <row r="67" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="85" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="73" t="s">
+      <c r="B67" s="85"/>
+    </row>
+    <row r="68" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="85" t="s">
         <v>800</v>
       </c>
-      <c r="B67" s="73"/>
-    </row>
-    <row r="68" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="73" t="s">
+      <c r="B68" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="B68" s="5" t="s">
+    </row>
+    <row r="69" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="85"/>
+      <c r="B69" s="5" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="73"/>
-      <c r="B69" s="5" t="s">
+    <row r="70" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="85"/>
+      <c r="B70" s="5" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="73"/>
-      <c r="B70" s="5" t="s">
+    <row r="71" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="85"/>
+      <c r="B71" s="5" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="73"/>
-      <c r="B71" s="5" t="s">
+    <row r="72" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="85"/>
+      <c r="B72" s="5" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="73"/>
-      <c r="B72" s="5" t="s">
+    <row r="73" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="85" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="73" t="s">
+      <c r="B73" s="85"/>
+    </row>
+    <row r="74" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="85" t="s">
         <v>807</v>
       </c>
-      <c r="B73" s="73"/>
-    </row>
-    <row r="74" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="73" t="s">
+      <c r="B74" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="B74" s="5" t="s">
+    </row>
+    <row r="75" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="85"/>
+      <c r="B75" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="73"/>
-      <c r="B75" s="5" t="s">
+    <row r="77" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="84" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="78" t="s">
-        <v>811</v>
-      </c>
-      <c r="B77" s="78"/>
+      <c r="B77" s="84"/>
     </row>
     <row r="78" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B78" s="5"/>
     </row>
     <row r="79" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>813</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B83" s="5"/>
     </row>
     <row r="84" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>819</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="5" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="84" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="78" t="s">
+      <c r="B87" s="84"/>
+      <c r="C87" s="84"/>
+    </row>
+    <row r="88" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="86" t="s">
         <v>822</v>
       </c>
-      <c r="B87" s="78"/>
-      <c r="C87" s="78"/>
-    </row>
-    <row r="88" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="79" t="s">
+      <c r="B88" s="87"/>
+      <c r="C88" s="88"/>
+    </row>
+    <row r="89" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="89" t="s">
         <v>823</v>
       </c>
-      <c r="B88" s="74"/>
-      <c r="C88" s="80"/>
-    </row>
-    <row r="89" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="75" t="s">
+      <c r="B89" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="C89" s="5" t="s">
+    </row>
+    <row r="90" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="91"/>
+      <c r="B90" s="5" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="76"/>
-      <c r="B90" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>827</v>
       </c>
-      <c r="C90" s="5" t="s">
+    </row>
+    <row r="91" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="91"/>
+      <c r="B91" s="5" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="76"/>
-      <c r="B91" s="5" t="s">
+      <c r="C91" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="C91" s="5" t="s">
+    </row>
+    <row r="92" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="91"/>
+      <c r="B92" s="5" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="76"/>
-      <c r="B92" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="C92" s="5" t="s">
+    </row>
+    <row r="93" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="91"/>
+      <c r="B93" s="5" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="76"/>
-      <c r="B93" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="C93" s="5" t="s">
+    </row>
+    <row r="94" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="91"/>
+      <c r="B94" s="5" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="76"/>
-      <c r="B94" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="C94" s="5" t="s">
+    </row>
+    <row r="95" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="90"/>
+      <c r="B95" s="5" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="77"/>
-      <c r="B95" s="5" t="s">
+      <c r="C95" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="C95" s="5" t="s">
+    </row>
+    <row r="96" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="86" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="79" t="s">
+      <c r="B96" s="87"/>
+      <c r="C96" s="88"/>
+    </row>
+    <row r="97" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="89" t="s">
         <v>839</v>
       </c>
-      <c r="B96" s="74"/>
-      <c r="C96" s="80"/>
-    </row>
-    <row r="97" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="75" t="s">
+      <c r="B97" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="C97" s="5" t="s">
         <v>841</v>
       </c>
-      <c r="C97" s="5" t="s">
+    </row>
+    <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="91"/>
+      <c r="B98" s="5" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="76"/>
-      <c r="B98" s="5" t="s">
+      <c r="C98" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="C98" s="5" t="s">
+    </row>
+    <row r="99" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="90"/>
+      <c r="B99" s="5" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="77"/>
-      <c r="B99" s="5" t="s">
+      <c r="C99" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="C99" s="5" t="s">
+    </row>
+    <row r="101" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="84" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="78" t="s">
+      <c r="B101" s="84"/>
+      <c r="C101" s="84"/>
+    </row>
+    <row r="102" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="85" t="s">
         <v>847</v>
       </c>
-      <c r="B101" s="78"/>
-      <c r="C101" s="78"/>
-    </row>
-    <row r="102" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="73" t="s">
+      <c r="B102" s="85"/>
+      <c r="C102" s="85"/>
+    </row>
+    <row r="103" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="92" t="s">
         <v>848</v>
       </c>
-      <c r="B102" s="73"/>
-      <c r="C102" s="73"/>
-    </row>
-    <row r="103" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="72" t="s">
+      <c r="B103" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="C103" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="C103" s="5" t="s">
+    </row>
+    <row r="104" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="92"/>
+      <c r="B104" s="5" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="72"/>
-      <c r="B104" s="5" t="s">
+      <c r="C104" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="C104" s="5" t="s">
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="92"/>
+      <c r="B105" s="5" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="72"/>
-      <c r="B105" s="5" t="s">
+      <c r="C105" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="C105" s="5" t="s">
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="92"/>
+      <c r="B106" s="5" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="72"/>
-      <c r="B106" s="5" t="s">
+      <c r="C106" s="5" t="s">
         <v>856</v>
       </c>
-      <c r="C106" s="5" t="s">
+    </row>
+    <row r="107" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="92"/>
+      <c r="B107" s="5" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="72"/>
-      <c r="B107" s="5" t="s">
+      <c r="C107" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="C107" s="5" t="s">
+    </row>
+    <row r="108" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="92"/>
+      <c r="B108" s="5" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="72"/>
-      <c r="B108" s="5" t="s">
+      <c r="C108" s="5" t="s">
         <v>860</v>
       </c>
-      <c r="C108" s="5" t="s">
+    </row>
+    <row r="109" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="85" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="73" t="s">
+      <c r="B109" s="85"/>
+      <c r="C109" s="85"/>
+    </row>
+    <row r="110" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="89" t="s">
         <v>862</v>
       </c>
-      <c r="B109" s="73"/>
-      <c r="C109" s="73"/>
-    </row>
-    <row r="110" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="75" t="s">
+      <c r="B110" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="C110" s="5" t="s">
         <v>864</v>
       </c>
-      <c r="C110" s="5" t="s">
+    </row>
+    <row r="111" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="90"/>
+      <c r="B111" s="5" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="77"/>
-      <c r="B111" s="5" t="s">
+      <c r="C111" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="C111" s="5" t="s">
+    </row>
+    <row r="112" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="87" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="74" t="s">
+      <c r="B112" s="87"/>
+      <c r="C112" s="87"/>
+    </row>
+    <row r="113" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="85" t="s">
         <v>868</v>
       </c>
-      <c r="B112" s="74"/>
-      <c r="C112" s="74"/>
-    </row>
-    <row r="113" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="73" t="s">
+      <c r="B113" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="C113" s="5" t="s">
         <v>870</v>
       </c>
-      <c r="C113" s="5" t="s">
+    </row>
+    <row r="114" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="85"/>
+      <c r="B114" s="5" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="73"/>
-      <c r="B114" s="5" t="s">
+      <c r="C114" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="C114" s="5" t="s">
+    </row>
+    <row r="115" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="85"/>
+      <c r="B115" s="5" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="73"/>
-      <c r="B115" s="5" t="s">
+      <c r="C115" s="5" t="s">
         <v>874</v>
       </c>
-      <c r="C115" s="5" t="s">
+    </row>
+    <row r="116" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="85"/>
+      <c r="B116" s="5" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="73"/>
-      <c r="B116" s="5" t="s">
+      <c r="C116" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="C116" s="5" t="s">
+    </row>
+    <row r="117" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="85" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="73" t="s">
+      <c r="B117" s="85"/>
+      <c r="C117" s="85"/>
+    </row>
+    <row r="118" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="89" t="s">
         <v>878</v>
       </c>
-      <c r="B117" s="73"/>
-      <c r="C117" s="73"/>
-    </row>
-    <row r="118" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="75" t="s">
+      <c r="B118" s="5" t="s">
         <v>879</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="C118" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="C118" s="5" t="s">
+    </row>
+    <row r="119" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="90"/>
+      <c r="B119" s="5" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="77"/>
-      <c r="B119" s="5" t="s">
+      <c r="C119" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="C119" s="5" t="s">
+    </row>
+    <row r="120" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="85" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="73" t="s">
+      <c r="B120" s="85"/>
+      <c r="C120" s="85"/>
+    </row>
+    <row r="121" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="89" t="s">
         <v>884</v>
       </c>
-      <c r="B120" s="73"/>
-      <c r="C120" s="73"/>
-    </row>
-    <row r="121" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="75" t="s">
+      <c r="B121" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="C121" s="5" t="s">
         <v>886</v>
       </c>
-      <c r="C121" s="5" t="s">
+    </row>
+    <row r="122" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="91"/>
+      <c r="B122" s="5" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="76"/>
-      <c r="B122" s="5" t="s">
+      <c r="C122" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="C122" s="5" t="s">
+    </row>
+    <row r="123" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="91"/>
+      <c r="B123" s="5" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="76"/>
-      <c r="B123" s="5" t="s">
+      <c r="C123" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="C123" s="5" t="s">
+    </row>
+    <row r="124" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="91"/>
+      <c r="B124" s="5" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="76"/>
-      <c r="B124" s="5" t="s">
+      <c r="C124" s="5" t="s">
         <v>892</v>
       </c>
-      <c r="C124" s="5" t="s">
+    </row>
+    <row r="125" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="91"/>
+      <c r="B125" s="5" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="76"/>
-      <c r="B125" s="5" t="s">
+      <c r="C125" s="5" t="s">
         <v>894</v>
       </c>
-      <c r="C125" s="5" t="s">
+    </row>
+    <row r="126" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="91"/>
+      <c r="B126" s="5" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="76"/>
-      <c r="B126" s="5" t="s">
+      <c r="C126" s="5" t="s">
         <v>896</v>
       </c>
-      <c r="C126" s="5" t="s">
+    </row>
+    <row r="127" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="91"/>
+      <c r="B127" s="5" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="76"/>
-      <c r="B127" s="5" t="s">
+      <c r="C127" s="5" t="s">
         <v>898</v>
       </c>
-      <c r="C127" s="5" t="s">
+    </row>
+    <row r="128" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="91"/>
+      <c r="B128" s="5" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="76"/>
-      <c r="B128" s="5" t="s">
+      <c r="C128" s="5" t="s">
         <v>900</v>
       </c>
-      <c r="C128" s="5" t="s">
+    </row>
+    <row r="129" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="91"/>
+      <c r="B129" s="5" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="76"/>
-      <c r="B129" s="5" t="s">
+      <c r="C129" s="5" t="s">
         <v>902</v>
       </c>
-      <c r="C129" s="5" t="s">
+    </row>
+    <row r="130" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="91"/>
+      <c r="B130" s="5" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="76"/>
-      <c r="B130" s="5" t="s">
+      <c r="C130" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="C130" s="5" t="s">
+    </row>
+    <row r="131" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="90"/>
+      <c r="B131" s="5" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="77"/>
-      <c r="B131" s="5" t="s">
+      <c r="C131" s="5" t="s">
         <v>906</v>
       </c>
-      <c r="C131" s="5" t="s">
+    </row>
+    <row r="133" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="84" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="78" t="s">
+      <c r="B133" s="84"/>
+      <c r="C133" s="84"/>
+    </row>
+    <row r="134" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="85" t="s">
         <v>908</v>
       </c>
-      <c r="B133" s="78"/>
-      <c r="C133" s="78"/>
-    </row>
-    <row r="134" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="73" t="s">
+      <c r="B134" s="85"/>
+      <c r="C134" s="85"/>
+    </row>
+    <row r="135" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="92" t="s">
         <v>909</v>
       </c>
-      <c r="B134" s="73"/>
-      <c r="C134" s="73"/>
-    </row>
-    <row r="135" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="72" t="s">
+      <c r="B135" s="5" t="s">
         <v>910</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="C135" s="5" t="s">
         <v>911</v>
       </c>
-      <c r="C135" s="5" t="s">
+    </row>
+    <row r="136" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="92"/>
+      <c r="B136" s="5" t="s">
         <v>912</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="72"/>
-      <c r="B136" s="5" t="s">
-        <v>913</v>
       </c>
       <c r="C136" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="73" t="s">
+      <c r="A137" s="85" t="s">
+        <v>913</v>
+      </c>
+      <c r="B137" s="85"/>
+      <c r="C137" s="85"/>
+    </row>
+    <row r="138" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="92" t="s">
         <v>914</v>
       </c>
-      <c r="B137" s="73"/>
-      <c r="C137" s="73"/>
-    </row>
-    <row r="138" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="72" t="s">
+      <c r="B138" s="5" t="s">
         <v>915</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="C138" s="5" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="92"/>
+      <c r="B139" s="5" t="s">
         <v>916</v>
       </c>
-      <c r="C138" s="5" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="72"/>
-      <c r="B139" s="5" t="s">
+      <c r="C139" s="5" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="87" t="s">
         <v>917</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="74" t="s">
+      <c r="B140" s="87"/>
+      <c r="C140" s="87"/>
+    </row>
+    <row r="141" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="92" t="s">
         <v>918</v>
       </c>
-      <c r="B140" s="74"/>
-      <c r="C140" s="74"/>
-    </row>
-    <row r="141" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="72" t="s">
+      <c r="B141" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>919</v>
       </c>
-      <c r="B141" s="5" t="s">
-        <v>911</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>920</v>
-      </c>
     </row>
     <row r="142" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="72"/>
+      <c r="A142" s="92"/>
       <c r="B142" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C142" s="6">
         <v>0.95</v>
@@ -24688,33 +24669,14 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A121:A131"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A138:A139"/>
     <mergeCell ref="A110:A111"/>
     <mergeCell ref="A112:C112"/>
     <mergeCell ref="A53:A57"/>
@@ -24725,16 +24687,35 @@
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A121:A131"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A12:A24"/>
     <mergeCell ref="A26:A34"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="A140:C140"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>
